--- a/output/fit_clients/fit_round_97.xlsx
+++ b/output/fit_clients/fit_round_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7603982684.033201</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004342959632228671</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.697602084695999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9335271548325889</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.697602084695999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6083906105.561104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005098264888547247</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.853821753385126</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.247329203708178</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.121825285084397</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.247329203708178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4786707781.907384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002844552707860444</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2076713126417583</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.38908883473702</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.4162202244376246</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.38908883473702</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4451421790.988463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005062816809546312</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.347812222005703</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8246211757337448</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.347812222005703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5761931628.283685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002573230149465371</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.121209630955896</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8489800257559355</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.121209630955896</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7932963271.648985</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001152501013536836</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.462520877155519</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9175626319468898</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.462520877155519</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6481637655.788321</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002611748064428216</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8420659030382704</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.047150921443108</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.163760574755707</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.047150921443108</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5837781091.424597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005469957194761138</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.996381019416128</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.670908442724504</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.206385819234817</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.670908442724504</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3769723256.49448</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004514401011715058</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.243892079729863</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9169625552418628</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.243892079729863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>5183357820.985617</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009348695917676471</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.267292987072657</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7825080660991017</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.267292987072657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6042281039.571856</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001996251518319168</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.652780243823171</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9687741819828679</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.652780243823171</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5823288979.641676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003426698902676159</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.241343616705621</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.011652262227644</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.241343616705621</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6950279836.077817</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.00296599194987292</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.551380809847749</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8786113741301838</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.551380809847749</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5468137552.90414</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005396616701818252</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.063462798858208</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.983587534411401</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.063462798858208</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8068244217.978492</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003453997084972775</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8390571361485362</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.702678602916315</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.114782658220614</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.702678602916315</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5420155452.323152</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002618446589362204</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.552905822908534</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.924398446954475</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.552905822908534</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5330344612.460124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008123383111933685</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8413963468253575</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.512700400875551</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.123561057670739</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.512700400875551</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4314715613.737265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002379526859029601</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9733766873397972</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.328272874190041</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.209707298863925</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.328272874190041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5424616248.256878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001097505781030252</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.570865554629804</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8061126317782012</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.570865554629804</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8148971999.680026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005000034828754244</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.659366672013055</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8634779472409452</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.659366672013055</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5165506104.29408</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005096524676921246</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.425961346367019</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7927000545850456</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.425961346367019</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>9101537885.327482</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001633297090144546</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.119327372749677</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8566847828891905</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.119327372749677</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6515788490.484057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003937672068488008</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.600497843604879</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9696674763019499</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.600497843604879</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7258316353.085093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003642960111039715</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.863200061382019</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9290264625731298</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.863200061382019</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5323171252.995388</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001305109523051694</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.104630021414273</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8100577404620247</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.104630021414273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5975446759.357354</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002702804697041373</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.455972220856938</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9206880080807861</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.455972220856938</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7861613577.320457</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003917534731008177</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.740841268566193</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9081219684105853</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.740841268566193</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5837858520.489997</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001133210878321179</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>18</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.598763696585654</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9582171324563906</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.598763696585654</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6704669397.896649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003492475130764967</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.054170997484245</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8496281186273004</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.054170997484245</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7976217798.501149</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003118561884626431</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>22</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.3487021702257094</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.346282289397264</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.6622196112198036</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.346282289397264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5015160135.423535</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001452855524721978</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.560075071123925</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.8992837826057637</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.560075071123925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6651171685.982352</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002469142660010408</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>15</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.808119173910338</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8368172506798232</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.808119173910338</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6230106452.533201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003926398453481781</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.640636848119814</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7435994412475727</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.640636848119814</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6283633134.47661</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002242715999079409</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.55443552999616</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9198967459774777</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.55443552999616</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7052448658.96584</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003299843407896842</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.490142943661111</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9982213057229419</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.490142943661111</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4563496515.635655</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005535103284793378</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.400406285856384</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9833485267754676</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.400406285856384</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3242958930.772979</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.0044528413936003</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.478693579111566</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9033868662320804</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.478693579111566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5290894626.642171</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002081606194275372</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>17</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8611631184035254</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.755011334674755</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.067357332617638</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.755011334674755</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6437493624.871721</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004419758533134367</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.565293721245909</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9610671587636351</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.565293721245909</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6607032706.281639</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001046862760575518</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.823849167327138</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9225233281003845</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.823849167327138</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5226100401.670052</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004211675085786395</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.391320938855448</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9675956742568398</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.391320938855448</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5097985817.271033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003777452137908779</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.55156692051483</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9019703926888</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.55156692051483</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4849466625.896632</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001653962665782139</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>23</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.347212617741106</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.914620953182813</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.347212617741106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5614224267.999366</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001180968727238595</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.843325209252326</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9467736504706433</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.843325209252326</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9347185230.580385</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005420017873266431</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.298112200792006</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7950545819872836</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.298112200792006</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6767440578.076879</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003094362316857946</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.292140913327284</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8747067315636997</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.292140913327284</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5294003096.944787</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003397933361930791</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.850886625327546</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.263034354774867</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.850886625327546</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5569432602.327702</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004555109493921659</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.405107333791169</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8570059773121235</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.405107333791169</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6547373338.957817</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00271011876204216</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2729779860110813</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.875748149966703</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.6166667647042807</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-2.875748149966703</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4962397621.879666</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005130185307065389</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.389935038392067</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9387394735737573</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.389935038392067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6745187378.955029</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00212625138198822</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.364547846502373</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8337557372806956</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.364547846502373</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4534765277.858157</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002994707065019028</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.390034217473683</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8973561855892535</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.390034217473683</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5974564615.728588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004960717133555543</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>22</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.193009377785462</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8296400116558968</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.193009377785462</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8562373366.829615</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002805980587837741</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.366070697079815</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8939953496408289</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.366070697079815</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5010970836.067125</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002620762083378989</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.467629143315848</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.8907763246185687</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.467629143315848</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6737336342.956575</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003224916130121493</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>21</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.279655965378041</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.7990040306107631</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.279655965378041</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5010965694.580012</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002080674711509344</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.283811210161645</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8289278484488185</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.283811210161645</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7032813619.932436</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003662925332404802</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.337310718307278</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8701060939496753</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.337310718307278</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3917136883.89805</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003043348552911539</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.105130807667829</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.7974021570944076</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.105130807667829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6058911804.055847</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005020111082316698</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>27</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.741463917983257</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9074082625255772</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.741463917983257</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5202040241.38531</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003378200683410961</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.013194716570488</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8586569162940128</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.013194716570488</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6790008266.260284</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004151043367784945</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.997823784723746</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8607178474498894</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-1.997823784723746</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3915175696.498375</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004513168881075644</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.8201773174803417</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.452995343816134</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.068883608805777</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.452995343816134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5085198610.265529</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005465626135080325</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.594192528764336</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.960350984727451</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.594192528764336</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4217834647.875441</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003850822247998761</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.468217795930035</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.888520587687039</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.468217795930035</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6584193191.237147</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005426178805304915</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.72175503400802</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8661167467746421</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.72175503400802</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6077655893.983005</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002599858145546888</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.093812922637822</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7052518071681069</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.093812922637822</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6297317455.81461</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009716002927529668</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>14</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.87573632605421</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-0.37990774789048</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-2.87573632605421</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7761223460.370733</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003074430815965401</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.450368984313524</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8741887148630123</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.450368984313524</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4366686194.454003</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003231065088817067</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.667142695205794</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7950040711607597</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.667142695205794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6903986805.510136</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001624579500915165</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.490445533185265</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.038616918417337</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.490445533185265</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7952724041.749805</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001384347743654928</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.695417048571019</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.946004207317121</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.695417048571019</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5127651153.845975</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004949385771276921</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7548956244644174</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.258318538996593</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9925292170886405</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.258318538996593</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7499382207.90989</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003703606924061657</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.576646494299406</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8646392185472843</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.576646494299406</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5817325415.410468</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002359809454918801</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1452896773036791</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418908</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.411391065568325</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.2079468900800865</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.411391065568325</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5327087734.483485</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005944690388194764</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.842472203488369</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9702349563004882</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.842472203488369</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5476838532.929158</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.00465199178301789</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>21</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.358826384073323</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8960837555604209</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.358826384073323</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6419154483.925947</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002191593879722808</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.483669365206663</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9285819976119126</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.483669365206663</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7107541653.269931</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003235882185467169</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.61938789355945</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.954638147375679</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.61938789355945</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5690579925.803979</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003966307935101985</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.06473841651706</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9696260616449006</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.06473841651706</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6516850769.482972</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005760094076899375</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>22</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8926414317757241</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.352098713223762</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.132721746356176</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.352098713223762</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10044097076.10535</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002271845564890451</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>25</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.073717491997617</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.814490732006643</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.073717491997617</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7102489402.941024</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004862744470517877</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2901944238780335</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.157279642306096</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.5479917353804139</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.157279642306096</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5602868488.364951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003576807934863653</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.124624960261714</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8866148837449535</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.124624960261714</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6544782913.906123</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002010142979401496</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1549808223801778</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.44693513123075</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.490684143181805</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.2621453262573445</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.490684143181805</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4709133743.825451</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001014217873653963</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.3714898764081225</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.957884967302474</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.661706171101809</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-1.957884967302474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7113252962.546845</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005490093614279861</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.493908135766878</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8412728063089989</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.493908135766878</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6224203415.412832</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004154685189243557</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758226</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.819563222658346</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9470642919782778</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.819563222658346</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5090065441.842329</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003428525871230685</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.563122475588858</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9394721225414603</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.563122475588858</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5726003108.933044</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003029167778410348</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.670136437322471</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8039616764933152</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.670136437322471</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5064549153.014551</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002768736664258931</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.787642496195595</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.037081057264906</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.787642496195595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7215242239.918634</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001777495415305216</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.392263422711913</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9084691808760037</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.392263422711913</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7684032160.614198</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.0009383483000477636</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>17</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2083055350930667</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.61326375492282</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.4833802840878351</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.61326375492282</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5079179933.859106</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002374177237978749</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.567682382210116</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9068646440753382</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.567682382210116</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7336024227.051334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.00247030428666991</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.194442646420129</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9010545519238899</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.194442646420129</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5818818130.609323</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003811924518117875</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>19</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.573045862784297</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8714164570194826</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.573045862784297</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7028892872.347881</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004300265941286631</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.3772070927205</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8542920322113878</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.3772070927205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3444281275.754061</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004109084492903559</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>23</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.275686684140936</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8765271531035884</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.275686684140936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3898271197.649889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003396317051514068</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.565483996915522</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8209137163282417</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.565483996915522</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6280238650.560852</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001319627023906583</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>22</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5837294071109426</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.557677690112873</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8651629530320074</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.557677690112873</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_97.xlsx
+++ b/output/fit_clients/fit_round_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7603982684.033201</v>
+        <v>1599113600.626101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004342959632228671</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24</v>
+        <v>0.09775755954319915</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03499934811673738</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>799556741.9681481</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2542682120.29526</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1394403567271909</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05051574649669858</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6083906105.561104</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005098264888547247</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>23</v>
+      <c r="J3" t="n">
+        <v>1271341184.172229</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4786707781.907384</v>
+        <v>5120978282.794298</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002844552707860444</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
+        <v>0.1379747949075575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02466207987342035</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2560489234.915987</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4451421790.988463</v>
+        <v>3008960820.43592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005062816809546312</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07619387203260028</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03779557416217662</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1504480479.422123</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5761931628.283685</v>
+        <v>2305673472.203033</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002573230149465371</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21</v>
+        <v>0.1249384272159656</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.043210346427273</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1152836732.544375</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7932963271.648985</v>
+        <v>2347683798.044926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001152501013536836</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.08712852096832618</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04422461977474166</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1173841926.642988</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6481637655.788321</v>
+        <v>3793398035.158415</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002611748064428216</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
+        <v>0.2036046646544463</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03076177683882621</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>31</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1896699156.130292</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5837781091.424597</v>
+        <v>1833519487.724718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005469957194761138</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1838988207495734</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03382672252068486</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>916759793.4882494</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3769723256.49448</v>
+        <v>4165006274.494282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004514401011715058</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1676900403384051</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05314206548593532</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2082503171.851189</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>5183357820.985617</v>
+        <v>4186409847.275848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009348695917676471</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1766226606002713</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03826423958127619</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2093204949.294303</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6042281039.571856</v>
+        <v>2897572022.842827</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001996251518319168</v>
-      </c>
-      <c r="G12" t="b">
+        <v>0.1531315008704323</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05085444751951523</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>27</v>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1448786019.983441</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5823288979.641676</v>
+        <v>3313875472.064389</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003426698902676159</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+        <v>0.06845855738014442</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02905710203032027</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1656937825.739988</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6950279836.077817</v>
+        <v>3299089053.192077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00296599194987292</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1773251949986732</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03006963363556906</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>22</v>
+      <c r="I14" t="n">
+        <v>31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1649544539.322252</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5468137552.90414</v>
+        <v>1424899752.268934</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005396616701818252</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.1059537256745454</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03631924908463493</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>712449944.5356184</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>8068244217.978492</v>
+        <v>2060252273.870631</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003453997084972775</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
+        <v>0.09959396397698299</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04841820449948012</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1030126206.973373</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5420155452.323152</v>
+        <v>3853587324.087859</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002618446589362204</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1564292180353581</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04219368873965732</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>28</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1926793703.80165</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5330344612.460124</v>
+        <v>3626262408.718626</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008123383111933685</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.1617365414855859</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02507080557202058</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1813131189.190157</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4314715613.737265</v>
+        <v>1005183513.112218</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002379526859029601</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1353085393481731</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02288096154135408</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>502591786.9916456</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5424616248.256878</v>
+        <v>2723251598.287332</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001097505781030252</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.125583953490769</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03001709951355756</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1361625748.380322</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8148971999.680026</v>
+        <v>1983774720.019015</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005000034828754244</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>18</v>
+        <v>0.07724297617850333</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03539316557974867</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>991887397.4656942</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5165506104.29408</v>
+        <v>3070054184.846428</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005096524676921246</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.1205347786613443</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05404757882608231</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1535027149.691872</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>9101537885.327482</v>
+        <v>1105645720.63527</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001633297090144546</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>18</v>
+        <v>0.1207705908341236</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04085801238875492</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>552822912.6272233</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6515788490.484057</v>
+        <v>3455122914.13968</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003937672068488008</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.1388360596954107</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02355645779626444</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>25</v>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1727561461.644505</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7258316353.085093</v>
+        <v>1217318759.778356</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003642960111039715</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.08616146436756962</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02681026216004262</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>608659393.8040293</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5323171252.995388</v>
+        <v>1202108336.234875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001305109523051694</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1039255760899352</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02793251602963761</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>601054189.5741109</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5975446759.357354</v>
+        <v>2865671273.387616</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002702804697041373</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1133270292955567</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02144920880057515</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1432835703.096642</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7861613577.320457</v>
+        <v>3732404753.044427</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003917534731008177</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1337108917460429</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03966952258440874</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>24</v>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1866202451.238181</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5837858520.489997</v>
+        <v>3979855115.199811</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001133210878321179</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26</v>
+        <v>0.1317045237496899</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04619506780151804</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1989927575.770959</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6704669397.896649</v>
+        <v>1899693182.190161</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003492475130764967</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
+        <v>0.1133419533150958</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02658404747904169</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>949846617.0375401</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7976217798.501149</v>
+        <v>1018297873.379867</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003118561884626431</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20</v>
+        <v>0.07805115692243081</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03423053517233703</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>509148930.8509247</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5015160135.423535</v>
+        <v>1201838084.535022</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001452855524721978</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1044656668907933</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03556105856425435</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>600919048.805606</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6651171685.982352</v>
+        <v>2688036753.269195</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002469142660010408</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>21</v>
+        <v>0.1366268472126115</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05650831089740914</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1344018398.7539</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6230106452.533201</v>
+        <v>1113001315.291613</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003926398453481781</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>30</v>
+        <v>0.09887083315236288</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02333564574537463</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>556500676.8814505</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6283633134.47661</v>
+        <v>959809401.5656803</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002242715999079409</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>25</v>
+        <v>0.07461634286739868</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03914213002848869</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>479904728.1062459</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7052448658.96584</v>
+        <v>2408571504.7305</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003299843407896842</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>27</v>
+        <v>0.1348440233693222</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02030943983573687</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1204285781.60094</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4563496515.635655</v>
+        <v>1880948280.824006</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005535103284793378</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>25</v>
+        <v>0.1004065553017897</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02850639025225389</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>940474151.2524192</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3242958930.772979</v>
+        <v>1868975598.087696</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0044528413936003</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1119547641802842</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03002083598005592</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>934487796.1120913</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5290894626.642171</v>
+        <v>1606208447.941043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002081606194275372</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1829357304830463</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02384060126534227</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>803104278.2146679</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6437493624.871721</v>
+        <v>1575933786.036747</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004419758533134367</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1186245646679966</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05368745272960211</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>787966840.1293845</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6607032706.281639</v>
+        <v>1888064412.338555</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001046862760575518</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>27</v>
+        <v>0.150208800587511</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03661488085641269</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>944032291.3101814</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5226100401.670052</v>
+        <v>4284740733.296015</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004211675085786395</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>24</v>
+        <v>0.08137357860174882</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03314647343296843</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2142370415.452261</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5097985817.271033</v>
+        <v>2565007332.313363</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003777452137908779</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>23</v>
+        <v>0.16709038760283</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01794299711444582</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1282503708.225198</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4849466625.896632</v>
+        <v>2198527302.010655</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001653962665782139</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>25</v>
+        <v>0.09322423502084257</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02930774901613389</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1099263796.890544</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5614224267.999366</v>
+        <v>2504895727.457058</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001180968727238595</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.174857639268512</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04436609558447662</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1252447905.421503</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9347185230.580385</v>
+        <v>4430859957.182336</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005420017873266431</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1445751202646861</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04341645890153704</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2215429972.733872</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6767440578.076879</v>
+        <v>4245166209.42665</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003094362316857946</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>14</v>
+        <v>0.1471376989612223</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03768003493175017</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2122583117.66086</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5294003096.944787</v>
+        <v>4276481105.289835</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003397933361930791</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>17</v>
+        <v>0.06782583375268018</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02592822977233673</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>32</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2138240570.860594</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5569432602.327702</v>
+        <v>1220693208.175133</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004555109493921659</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1816269505106484</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03048346170245619</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>610346679.4899544</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3804602011.749496</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1514389658803314</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03669208597559637</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>528</v>
-      </c>
-      <c r="E50" t="n">
-        <v>6547373338.957817</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.00271011876204216</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+      <c r="I50" t="n">
+        <v>33</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1902301008.385494</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4962397621.879666</v>
+        <v>1226129902.689024</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005130185307065389</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1775586817051633</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03434795620743571</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>613064998.5906903</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6745187378.955029</v>
+        <v>3594507092.871258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00212625138198822</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1307093213454835</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06142982508222532</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>23</v>
+      <c r="I52" t="n">
+        <v>40</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1797253626.71024</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4534765277.858157</v>
+        <v>3077745171.027053</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002994707065019028</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>18</v>
+        <v>0.1980706554579152</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02589328210480955</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1538872612.536308</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5974564615.728588</v>
+        <v>4046052677.438079</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004960717133555543</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>24</v>
+        <v>0.1285201522870517</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04572370779797715</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>33</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2023026406.343355</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8562373366.829615</v>
+        <v>4888989656.348509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002805980587837741</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>31</v>
+        <v>0.1413185973743802</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02538618089013059</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2444494842.2731</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5010970836.067125</v>
+        <v>1239008497.668075</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002620762083378989</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1299092802234292</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03987556073283548</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>619504329.6869458</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6737336342.956575</v>
+        <v>3843925473.747175</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003224916130121493</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1650474985107792</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02452299405488868</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1921962812.056868</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5010965694.580012</v>
+        <v>1234642690.195319</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002080674711509344</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>24</v>
+        <v>0.1958845886558847</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03822445769553661</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>617321400.3653437</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7032813619.932436</v>
+        <v>4832306371.373469</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003662925332404802</v>
-      </c>
-      <c r="G59" t="b">
+        <v>0.1079712590013371</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03549612241429409</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="n">
-        <v>11</v>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2416153121.39957</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3917136883.89805</v>
+        <v>3557562501.587583</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003043348552911539</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1413592006977146</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02478570230212359</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>30</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1778781379.537516</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6058911804.055847</v>
+        <v>2421723972.233024</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005020111082316698</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>21</v>
+        <v>0.1453498601182309</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02165361487888412</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1210862021.044238</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5202040241.38531</v>
+        <v>1856509218.526975</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003378200683410961</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>17</v>
+        <v>0.1207902260608001</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03551753793014978</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>928254645.7625408</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6790008266.260284</v>
+        <v>5381981535.045141</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004151043367784945</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07527247585765119</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04302209694366647</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2690990768.180547</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>491</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5268816065.336092</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1354055886737206</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02755546294652695</v>
+      </c>
+      <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>545</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3915175696.498375</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.004513168881075644</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2634408157.710256</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5085198610.265529</v>
+        <v>5939570790.764454</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005465626135080325</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26</v>
+        <v>0.1258426097083722</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.01998862633596697</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>35</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2969785298.170552</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4217834647.875441</v>
+        <v>4045061303.789349</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003850822247998761</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1585367548793859</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03244741691617221</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>28</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2022530627.797178</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>499</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3352551555.479759</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.08636441992817524</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03658881783963718</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="n">
-        <v>411</v>
-      </c>
-      <c r="E67" t="n">
-        <v>6584193191.237147</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.005426178805304915</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+      <c r="I67" t="n">
+        <v>31</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1676275766.118174</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6077655893.983005</v>
+        <v>3796101384.355097</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002599858145546888</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>20</v>
+        <v>0.115244123812522</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03119130925960619</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1898050675.552703</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6297317455.81461</v>
+        <v>2097793097.645825</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009716002927529668</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1237684167130935</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05665101350467702</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1048896566.340971</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7761223460.370733</v>
+        <v>3615002628.977368</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003074430815965401</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.0631624840485023</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04160020638713415</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1807501331.402403</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4366686194.454003</v>
+        <v>4404380499.536555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003231065088817067</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1494330595481746</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03275580976085794</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2202190310.920489</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6903986805.510136</v>
+        <v>2001983439.012255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001624579500915165</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>21</v>
+        <v>0.09560495189370211</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04011509985432542</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1000991665.467128</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7952724041.749805</v>
+        <v>2778701862.469633</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001384347743654928</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.102109065915659</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03816100879817707</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1389350947.412408</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5127651153.845975</v>
+        <v>3272202517.775884</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004949385771276921</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1283667575747005</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0308272459196164</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1636101300.648144</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7499382207.90989</v>
+        <v>2255036542.096597</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003703606924061657</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1551397207352331</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03304506467601996</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1127518211.246626</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5817325415.410468</v>
+        <v>4385196324.417506</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002359809454918801</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20</v>
+        <v>0.08431363463740457</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02454217292049419</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2192598163.032272</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5327087734.483485</v>
+        <v>2133739399.986534</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005944690388194764</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>32</v>
+        <v>0.1288548307239949</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0313272857427517</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1066869781.194706</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5476838532.929158</v>
+        <v>4220739915.214841</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00465199178301789</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1177307805209143</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03908667382049764</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2110369907.476377</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6419154483.925947</v>
+        <v>1164303327.030862</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002191593879722808</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1679418324912954</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03874749116133372</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>582151638.9517002</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7107541653.269931</v>
+        <v>4718979144.801696</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003235882185467169</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.09056067830447057</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02603488880340743</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2359489607.551411</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5690579925.803979</v>
+        <v>3870582196.702131</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003966307935101985</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.09231740522843061</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02510381741098909</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1935291056.650357</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5413809682.379303</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1450643619627543</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02952313221538443</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6516850769.482972</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.005760094076899375</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>18</v>
+      <c r="I82" t="n">
+        <v>36</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2706904801.989368</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10044097076.10535</v>
+        <v>1557817863.847097</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002271845564890451</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1431543832878914</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04556787966858796</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>778908862.0814004</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7102489402.941024</v>
+        <v>1610842108.055268</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004862744470517877</v>
-      </c>
-      <c r="G84" t="b">
+        <v>0.07678561567325429</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04651342794275788</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="n">
-        <v>25</v>
+      <c r="J84" t="n">
+        <v>805421115.9392828</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5602868488.364951</v>
+        <v>2374169042.787253</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003576807934863653</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.155601315086821</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0542508649821844</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1187084512.38173</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6544782913.906123</v>
+        <v>2064876399.957949</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002010142979401496</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>33</v>
+        <v>0.1459961971692578</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02552373147912994</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1032438236.555507</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4709133743.825451</v>
+        <v>1185102999.754894</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001014217873653963</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1418867706563919</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04069010503631919</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>592551551.5685203</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7113252962.546845</v>
+        <v>3110007528.616623</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005490093614279861</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1740651148713091</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03061642804753621</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1555003805.554213</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6224203415.412832</v>
+        <v>3469254389.764416</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004154685189243557</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.1127069849830962</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.0374484258536909</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1734627198.515346</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5090065441.842329</v>
+        <v>1899754789.498482</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003428525871230685</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>18</v>
+        <v>0.1320825486515426</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04467511507989104</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>949877446.5809329</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5726003108.933044</v>
+        <v>2055694668.04424</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003029167778410348</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
+        <v>0.1442610367436006</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03756719637919353</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1027847298.803193</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5064549153.014551</v>
+        <v>2734619330.517153</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002768736664258931</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08590890355708809</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04141114273644703</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1367309666.858017</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7215242239.918634</v>
+        <v>4466947526.601624</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001777495415305216</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>34</v>
+        <v>0.1327524904834645</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03918371381951376</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2233473733.659124</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7684032160.614198</v>
+        <v>2237945664.339104</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0009383483000477636</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>32</v>
+        <v>0.1221919437353423</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02993260456121134</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1118972861.397916</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5079179933.859106</v>
+        <v>2789105560.848648</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002374177237978749</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>25</v>
+        <v>0.09240065834979627</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04416231340668556</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>23</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1394552795.427556</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7336024227.051334</v>
+        <v>1449087234.015239</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00247030428666991</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>26</v>
+        <v>0.12075269629795</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03719673989248967</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>724543662.7435936</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5818818130.609323</v>
+        <v>4663459807.380991</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003811924518117875</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>25</v>
+        <v>0.1385398474457991</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02181202158642732</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>31</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2331730013.348986</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7028892872.347881</v>
+        <v>3069039982.100822</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004300265941286631</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>36</v>
+        <v>0.1297161973373001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02318042053460769</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1534519980.354903</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3444281275.754061</v>
+        <v>3331937469.20858</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004109084492903559</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1265342840979993</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0241105225375302</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1665968744.531098</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3898271197.649889</v>
+        <v>2999459456.465829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003396317051514068</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1307263814348515</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02506864964599838</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1499729718.964432</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6280238650.560852</v>
+        <v>2269265989.142488</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001319627023906583</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>31</v>
+        <v>0.2029187129470563</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04936967367025843</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>41</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1134632986.976458</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_97.xlsx
+++ b/output/fit_clients/fit_round_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599113600.626101</v>
+        <v>1759730641.821769</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09775755954319915</v>
+        <v>0.07480645228823438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03499934811673738</v>
+        <v>0.04537584422492163</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>799556741.9681481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2542682120.29526</v>
+        <v>2186017266.625751</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1394403567271909</v>
+        <v>0.165220012166617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05051574649669858</v>
+        <v>0.04298509090319919</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1271341184.172229</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5120978282.794298</v>
+        <v>3673397230.446523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1379747949075575</v>
+        <v>0.141368658905599</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02466207987342035</v>
+        <v>0.03746270012530899</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2560489234.915987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3008960820.43592</v>
+        <v>3847250427.873276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07619387203260028</v>
+        <v>0.09658402587109112</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03779557416217662</v>
+        <v>0.03680193763829807</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1504480479.422123</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2305673472.203033</v>
+        <v>2286379946.706794</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1249384272159656</v>
+        <v>0.09939427853192612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.043210346427273</v>
+        <v>0.04105764918848766</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1152836732.544375</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2347683798.044926</v>
+        <v>2760016396.979445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08712852096832618</v>
+        <v>0.0982079618170789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04422461977474166</v>
+        <v>0.03605619314638854</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1173841926.642988</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3793398035.158415</v>
+        <v>3342424190.294162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2036046646544463</v>
+        <v>0.1963633937852448</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03076177683882621</v>
+        <v>0.0224287263768763</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1896699156.130292</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1833519487.724718</v>
+        <v>1960021193.394123</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1838988207495734</v>
+        <v>0.1253168380035426</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03382672252068486</v>
+        <v>0.02497822528050968</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>916759793.4882494</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4165006274.494282</v>
+        <v>4174154464.339217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1676900403384051</v>
+        <v>0.1950555898583187</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05314206548593532</v>
+        <v>0.03507061454637201</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2082503171.851189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4186409847.275848</v>
+        <v>4121324853.957627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1766226606002713</v>
+        <v>0.1802208195213289</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03826423958127619</v>
+        <v>0.03696012722763176</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2093204949.294303</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2897572022.842827</v>
+        <v>2219205378.820141</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1531315008704323</v>
+        <v>0.1771637354731448</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05085444751951523</v>
+        <v>0.04477686422120482</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1448786019.983441</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3313875472.064389</v>
+        <v>4619813914.002178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06845855738014442</v>
+        <v>0.07594089488524436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02905710203032027</v>
+        <v>0.02018178100470914</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1656937825.739988</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3299089053.192077</v>
+        <v>2852058403.579587</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1773251949986732</v>
+        <v>0.1444845604713175</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03006963363556906</v>
+        <v>0.04228223912225767</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>31</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1649544539.322252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1424899752.268934</v>
+        <v>1429341438.113725</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1059537256745454</v>
+        <v>0.1026386998330336</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03631924908463493</v>
+        <v>0.04788289684250319</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>712449944.5356184</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2060252273.870631</v>
+        <v>2591919025.78564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09959396397698299</v>
+        <v>0.09322139787321546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04841820449948012</v>
+        <v>0.0449110717918696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1030126206.973373</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3853587324.087859</v>
+        <v>3529147828.332608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1564292180353581</v>
+        <v>0.1698454071759061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04219368873965732</v>
+        <v>0.03815270198114407</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>28</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1926793703.80165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3626262408.718626</v>
+        <v>3215591811.903407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1617365414855859</v>
+        <v>0.1596663718424984</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02507080557202058</v>
+        <v>0.02976841658119178</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1813131189.190157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005183513.112218</v>
+        <v>1218570245.25432</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1353085393481731</v>
+        <v>0.1445364980664374</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02288096154135408</v>
+        <v>0.02126207115374023</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>502591786.9916456</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2723251598.287332</v>
+        <v>2412966134.330201</v>
       </c>
       <c r="F20" t="n">
-        <v>0.125583953490769</v>
+        <v>0.1254207977501592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03001709951355756</v>
+        <v>0.02092179261106443</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1361625748.380322</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1983774720.019015</v>
+        <v>2702253813.358745</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07724297617850333</v>
+        <v>0.09376320895056656</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03539316557974867</v>
+        <v>0.04142809431114207</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>991887397.4656942</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3070054184.846428</v>
+        <v>2669030906.652931</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1205347786613443</v>
+        <v>0.09321533436921646</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05404757882608231</v>
+        <v>0.04798617819364936</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1535027149.691872</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1105645720.63527</v>
+        <v>1219089928.514554</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1207705908341236</v>
+        <v>0.1232063321972822</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04085801238875492</v>
+        <v>0.03420392845492404</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>552822912.6272233</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3455122914.13968</v>
+        <v>3001060943.432391</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1388360596954107</v>
+        <v>0.1041174591812315</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02355645779626444</v>
+        <v>0.02435264134752857</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>28</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1727561461.644505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1217318759.778356</v>
+        <v>1353316636.025358</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08616146436756962</v>
+        <v>0.08111798687074633</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02681026216004262</v>
+        <v>0.01955376440826163</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>608659393.8040293</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202108336.234875</v>
+        <v>1408266550.869547</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1039255760899352</v>
+        <v>0.09015214528605144</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02793251602963761</v>
+        <v>0.03580557861042575</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601054189.5741109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2865671273.387616</v>
+        <v>4383645479.439888</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1133270292955567</v>
+        <v>0.1378526687792777</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02144920880057515</v>
+        <v>0.01688308568690251</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1432835703.096642</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3732404753.044427</v>
+        <v>2885279561.518393</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1337108917460429</v>
+        <v>0.09621515003879598</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03966952258440874</v>
+        <v>0.04751674170471327</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>31</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1866202451.238181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3979855115.199811</v>
+        <v>5323313192.80909</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1317045237496899</v>
+        <v>0.1235344096476405</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04619506780151804</v>
+        <v>0.03830127254165683</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1989927575.770959</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1899693182.190161</v>
+        <v>1582305425.483209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1133419533150958</v>
+        <v>0.08839006163032202</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02658404747904169</v>
+        <v>0.04027071620493464</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>949846617.0375401</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1018297873.379867</v>
+        <v>1348830323.285295</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07805115692243081</v>
+        <v>0.07681619531685838</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03423053517233703</v>
+        <v>0.03424863650592948</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>509148930.8509247</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1201838084.535022</v>
+        <v>1147451073.951869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1044656668907933</v>
+        <v>0.07449532986937346</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03556105856425435</v>
+        <v>0.03738895320850092</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>600919048.805606</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2688036753.269195</v>
+        <v>2719926937.548423</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1366268472126115</v>
+        <v>0.1261984940559752</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05650831089740914</v>
+        <v>0.04221231999526245</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1344018398.7539</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1113001315.291613</v>
+        <v>1265643049.143484</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09887083315236288</v>
+        <v>0.07396978906826204</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02333564574537463</v>
+        <v>0.02539977997075324</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>556500676.8814505</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>959809401.5656803</v>
+        <v>858650981.0030769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07461634286739868</v>
+        <v>0.1067200391599386</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03914213002848869</v>
+        <v>0.04500693755743343</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>479904728.1062459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2408571504.7305</v>
+        <v>2717686667.559913</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1348440233693222</v>
+        <v>0.1642627710223509</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02030943983573687</v>
+        <v>0.02060553828590125</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1204285781.60094</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1880948280.824006</v>
+        <v>2245316537.512187</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004065553017897</v>
+        <v>0.09924129841369855</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02850639025225389</v>
+        <v>0.04004919378201434</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>940474151.2524192</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1868975598.087696</v>
+        <v>1585492236.096226</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1119547641802842</v>
+        <v>0.07871928096474202</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03002083598005592</v>
+        <v>0.03311053910684831</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>934487796.1120913</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1606208447.941043</v>
+        <v>1511761361.103718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1829357304830463</v>
+        <v>0.181480282787675</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02384060126534227</v>
+        <v>0.029830569456484</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>803104278.2146679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1575933786.036747</v>
+        <v>1394075817.664217</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1186245646679966</v>
+        <v>0.1273667982306256</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05368745272960211</v>
+        <v>0.05516451916644407</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>787966840.1293845</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1888064412.338555</v>
+        <v>2382422269.594994</v>
       </c>
       <c r="F41" t="n">
-        <v>0.150208800587511</v>
+        <v>0.1429258551092142</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03661488085641269</v>
+        <v>0.02852484579311231</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>944032291.3101814</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4284740733.296015</v>
+        <v>3791776314.107456</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08137357860174882</v>
+        <v>0.123133173647887</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03314647343296843</v>
+        <v>0.03634507622045265</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2142370415.452261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2565007332.313363</v>
+        <v>2239599515.598019</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16709038760283</v>
+        <v>0.1532007922185106</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01794299711444582</v>
+        <v>0.02259701959322072</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1282503708.225198</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2198527302.010655</v>
+        <v>2256941271.603574</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09322423502084257</v>
+        <v>0.09954626582599016</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02930774901613389</v>
+        <v>0.0360161784757129</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1099263796.890544</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2504895727.457058</v>
+        <v>1589571614.24048</v>
       </c>
       <c r="F45" t="n">
-        <v>0.174857639268512</v>
+        <v>0.1634160257710973</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04436609558447662</v>
+        <v>0.04739803443414824</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1252447905.421503</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4430859957.182336</v>
+        <v>4019641504.618127</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1445751202646861</v>
+        <v>0.1296785172468573</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04341645890153704</v>
+        <v>0.04697836413312013</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>35</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2215429972.733872</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4245166209.42665</v>
+        <v>4161128282.239145</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1471376989612223</v>
+        <v>0.2015233861361814</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03768003493175017</v>
+        <v>0.04591473820936798</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2122583117.66086</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4276481105.289835</v>
+        <v>3707248616.724134</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06782583375268018</v>
+        <v>0.09448529426161956</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02592822977233673</v>
+        <v>0.02826822098589937</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>32</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2138240570.860594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1220693208.175133</v>
+        <v>1384192480.377873</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1816269505106484</v>
+        <v>0.1586058697365432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03048346170245619</v>
+        <v>0.03915843099482794</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>610346679.4899544</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3804602011.749496</v>
+        <v>3299679448.087899</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1514389658803314</v>
+        <v>0.1687977364008481</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03669208597559637</v>
+        <v>0.04045017644952723</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>33</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1902301008.385494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1226129902.689024</v>
+        <v>1101855771.79271</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1775586817051633</v>
+        <v>0.1590909981790637</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03434795620743571</v>
+        <v>0.0504270136418495</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>613064998.5906903</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3594507092.871258</v>
+        <v>3983379021.675952</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1307093213454835</v>
+        <v>0.13665237778749</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06142982508222532</v>
+        <v>0.05557785004247363</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>40</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1797253626.71024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3077745171.027053</v>
+        <v>2396140509.095138</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1980706554579152</v>
+        <v>0.1904171370200433</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02589328210480955</v>
+        <v>0.03406696744655544</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1538872612.536308</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4046052677.438079</v>
+        <v>4373898152.793689</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1285201522870517</v>
+        <v>0.1254083276050421</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04572370779797715</v>
+        <v>0.03912823898037953</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>33</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2023026406.343355</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4888989656.348509</v>
+        <v>3291888171.103257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1413185973743802</v>
+        <v>0.1651114039010732</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02538618089013059</v>
+        <v>0.01987932598234768</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2444494842.2731</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1239008497.668075</v>
+        <v>1327337198.16952</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1299092802234292</v>
+        <v>0.1555939555983386</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03987556073283548</v>
+        <v>0.03669360512914526</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>619504329.6869458</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3843925473.747175</v>
+        <v>3769515307.138402</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1650474985107792</v>
+        <v>0.1354322539489112</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02452299405488868</v>
+        <v>0.01952161531068538</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>31</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1921962812.056868</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1234642690.195319</v>
+        <v>1488979240.277807</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1958845886558847</v>
+        <v>0.1367831933815837</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03822445769553661</v>
+        <v>0.026014969193527</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>617321400.3653437</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4832306371.373469</v>
+        <v>3343964118.27366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1079712590013371</v>
+        <v>0.1131581000540074</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03549612241429409</v>
+        <v>0.03025058334369652</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2416153121.39957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3557562501.587583</v>
+        <v>3118537610.505509</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1413592006977146</v>
+        <v>0.1297898858948163</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02478570230212359</v>
+        <v>0.03323683998542056</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>30</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1778781379.537516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2421723972.233024</v>
+        <v>2597914632.150875</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1453498601182309</v>
+        <v>0.1410450427092211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02165361487888412</v>
+        <v>0.02661257853043754</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>33</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1210862021.044238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1856509218.526975</v>
+        <v>1706006215.458842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1207902260608001</v>
+        <v>0.1794211325682967</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03551753793014978</v>
+        <v>0.03361253150169232</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>928254645.7625408</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5381981535.045141</v>
+        <v>4662803124.876608</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07527247585765119</v>
+        <v>0.08945259390316636</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04302209694366647</v>
+        <v>0.03740317294433115</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2690990768.180547</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5268816065.336092</v>
+        <v>4224391602.122272</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1354055886737206</v>
+        <v>0.1750695470711456</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02755546294652695</v>
+        <v>0.02414835380311729</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>30</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2634408157.710256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5939570790.764454</v>
+        <v>4192392928.094373</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1258426097083722</v>
+        <v>0.1622527431322199</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01998862633596697</v>
+        <v>0.0244698658271317</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>35</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2969785298.170552</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4045061303.789349</v>
+        <v>5261044249.370074</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1585367548793859</v>
+        <v>0.1343999310384606</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03244741691617221</v>
+        <v>0.03432652632701065</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>28</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2022530627.797178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3352551555.479759</v>
+        <v>3212022783.126618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08636441992817524</v>
+        <v>0.09676603368476074</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03658881783963718</v>
+        <v>0.05060579112661392</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>31</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1676275766.118174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3796101384.355097</v>
+        <v>5606210584.422068</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115244123812522</v>
+        <v>0.1232299590997485</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03119130925960619</v>
+        <v>0.03233679706678265</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>31</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1898050675.552703</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2097793097.645825</v>
+        <v>2199417413.225199</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1237684167130935</v>
+        <v>0.1627166928685753</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05665101350467702</v>
+        <v>0.05060807489765909</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1048896566.340971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3615002628.977368</v>
+        <v>2542140980.729607</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0631624840485023</v>
+        <v>0.06937345752503946</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04160020638713415</v>
+        <v>0.04250649355018818</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>27</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1807501331.402403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4404380499.536555</v>
+        <v>4722212371.841193</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1494330595481746</v>
+        <v>0.1219171355185783</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03275580976085794</v>
+        <v>0.03411107123401656</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2202190310.920489</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2001983439.012255</v>
+        <v>1618620091.457581</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09560495189370211</v>
+        <v>0.06681204152708166</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04011509985432542</v>
+        <v>0.04701412981525278</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1000991665.467128</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2778701862.469633</v>
+        <v>2574301533.799633</v>
       </c>
       <c r="F73" t="n">
-        <v>0.102109065915659</v>
+        <v>0.109743177162056</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03816100879817707</v>
+        <v>0.04402303206585825</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1389350947.412408</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3272202517.775884</v>
+        <v>3473313145.915667</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1283667575747005</v>
+        <v>0.1371912774262498</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0308272459196164</v>
+        <v>0.02734660760617459</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>33</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1636101300.648144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2255036542.096597</v>
+        <v>1591902785.611615</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1551397207352331</v>
+        <v>0.1194652561294366</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03304506467601996</v>
+        <v>0.02500051767043279</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1127518211.246626</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4385196324.417506</v>
+        <v>4820958631.577381</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08431363463740457</v>
+        <v>0.123284024951703</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02454217292049419</v>
+        <v>0.03116269769814079</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2192598163.032272</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2133739399.986534</v>
+        <v>1681256120.510623</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1288548307239949</v>
+        <v>0.1627535602794417</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0313272857427517</v>
+        <v>0.02151358795480339</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1066869781.194706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4220739915.214841</v>
+        <v>3501032713.003197</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1177307805209143</v>
+        <v>0.1237750053301319</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03908667382049764</v>
+        <v>0.04036811350699882</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2110369907.476377</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1164303327.030862</v>
+        <v>1214239532.797981</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1679418324912954</v>
+        <v>0.1445798466712205</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03874749116133372</v>
+        <v>0.03418569411921472</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>582151638.9517002</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4718979144.801696</v>
+        <v>4564083385.084091</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09056067830447057</v>
+        <v>0.06937397060594611</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02603488880340743</v>
+        <v>0.03442646517759887</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>20</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2359489607.551411</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3870582196.702131</v>
+        <v>3981675044.762781</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09231740522843061</v>
+        <v>0.1012019974604962</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02510381741098909</v>
+        <v>0.03281403235076381</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1935291056.650357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5413809682.379303</v>
+        <v>3624219259.027306</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1450643619627543</v>
+        <v>0.1911943418280513</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02952313221538443</v>
+        <v>0.01778042926012612</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>36</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2706904801.989368</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1557817863.847097</v>
+        <v>2453718306.476224</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1431543832878914</v>
+        <v>0.1345302516338232</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04556787966858796</v>
+        <v>0.03588629875880238</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>778908862.0814004</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1610842108.055268</v>
+        <v>2180675523.403666</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07678561567325429</v>
+        <v>0.08216454871640425</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04651342794275788</v>
+        <v>0.03839107250009485</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>805421115.9392828</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2374169042.787253</v>
+        <v>2651007340.639877</v>
       </c>
       <c r="F85" t="n">
-        <v>0.155601315086821</v>
+        <v>0.1405611794870061</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0542508649821844</v>
+        <v>0.05377017549742698</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1187084512.38173</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2064876399.957949</v>
+        <v>2124988558.111968</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1459961971692578</v>
+        <v>0.1464310809949319</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02552373147912994</v>
+        <v>0.02536093670082757</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1032438236.555507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1185102999.754894</v>
+        <v>1370764569.400654</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1418867706563919</v>
+        <v>0.1771721047947069</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04069010503631919</v>
+        <v>0.03165853505541593</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>592551551.5685203</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3110007528.616623</v>
+        <v>2938065182.597328</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1740651148713091</v>
+        <v>0.1739844292493712</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03061642804753621</v>
+        <v>0.03446682028169434</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>39</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1555003805.554213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3469254389.764416</v>
+        <v>2829482019.791051</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1127069849830962</v>
+        <v>0.1332436013824825</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0374484258536909</v>
+        <v>0.03496799120563382</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1734627198.515346</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1899754789.498482</v>
+        <v>1394002218.533411</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1320825486515426</v>
+        <v>0.1266500493209104</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04467511507989104</v>
+        <v>0.04977939885311227</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>949877446.5809329</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055694668.04424</v>
+        <v>1843225710.998685</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1442610367436006</v>
+        <v>0.1557363992013175</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03756719637919353</v>
+        <v>0.04631070842753582</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1027847298.803193</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2734619330.517153</v>
+        <v>2434068473.871052</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08590890355708809</v>
+        <v>0.1057063679754165</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04141114273644703</v>
+        <v>0.04554500862217897</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1367309666.858017</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4466947526.601624</v>
+        <v>3188324522.094638</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1327524904834645</v>
+        <v>0.1382654961070165</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03918371381951376</v>
+        <v>0.04549580113847456</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2233473733.659124</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2237945664.339104</v>
+        <v>2188043925.315882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1221919437353423</v>
+        <v>0.1201277507982757</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02993260456121134</v>
+        <v>0.03367799090400743</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1118972861.397916</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2789105560.848648</v>
+        <v>3054292172.846853</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09240065834979627</v>
+        <v>0.1117117387817397</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04416231340668556</v>
+        <v>0.03920662354960684</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>23</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1394552795.427556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1449087234.015239</v>
+        <v>1783232586.153364</v>
       </c>
       <c r="F96" t="n">
-        <v>0.12075269629795</v>
+        <v>0.1086832542446121</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03719673989248967</v>
+        <v>0.03219260325333097</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>724543662.7435936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4663459807.380991</v>
+        <v>3689353078.784439</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1385398474457991</v>
+        <v>0.1197576905920058</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02181202158642732</v>
+        <v>0.02906951287574651</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>31</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2331730013.348986</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3069039982.100822</v>
+        <v>3070141188.544559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297161973373001</v>
+        <v>0.1074335393218009</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02318042053460769</v>
+        <v>0.0323929195426057</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1534519980.354903</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3331937469.20858</v>
+        <v>2335070417.349838</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1265342840979993</v>
+        <v>0.1104985679536889</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0241105225375302</v>
+        <v>0.03343444822245456</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1665968744.531098</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2999459456.465829</v>
+        <v>3162480034.707364</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1307263814348515</v>
+        <v>0.1698559700710325</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02506864964599838</v>
+        <v>0.02307038091866079</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>30</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1499729718.964432</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2269265989.142488</v>
+        <v>3371901942.888409</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2029187129470563</v>
+        <v>0.1416490540906001</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04936967367025843</v>
+        <v>0.04529958779070811</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>41</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1134632986.976458</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_97.xlsx
+++ b/output/fit_clients/fit_round_97.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1759730641.821769</v>
+        <v>2394387620.271888</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07480645228823438</v>
+        <v>0.09589228029312098</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04537584422492163</v>
+        <v>0.04170644309337687</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2186017266.625751</v>
+        <v>2632249976.421508</v>
       </c>
       <c r="F3" t="n">
-        <v>0.165220012166617</v>
+        <v>0.1471002861595802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04298509090319919</v>
+        <v>0.03242869818181317</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3673397230.446523</v>
+        <v>3776483266.012659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141368658905599</v>
+        <v>0.1212768293274355</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03746270012530899</v>
+        <v>0.0254348350314708</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3847250427.873276</v>
+        <v>2607764035.776169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09658402587109112</v>
+        <v>0.09943327851133318</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03680193763829807</v>
+        <v>0.04806155978115632</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2286379946.706794</v>
+        <v>1944742031.488798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09939427853192612</v>
+        <v>0.09028375704290373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04105764918848766</v>
+        <v>0.04767425234411481</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2760016396.979445</v>
+        <v>2283057211.650111</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0982079618170789</v>
+        <v>0.07574566675297124</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03605619314638854</v>
+        <v>0.0462041229588084</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3342424190.294162</v>
+        <v>2730615401.889277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1963633937852448</v>
+        <v>0.214381030393742</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0224287263768763</v>
+        <v>0.03344135417811352</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1960021193.394123</v>
+        <v>2205332958.486958</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1253168380035426</v>
+        <v>0.1269125437303069</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02497822528050968</v>
+        <v>0.03129619431643641</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4174154464.339217</v>
+        <v>4439346673.622075</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1950555898583187</v>
+        <v>0.1667879769263782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03507061454637201</v>
+        <v>0.0486047681994027</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4121324853.957627</v>
+        <v>2599567061.671309</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1802208195213289</v>
+        <v>0.1386267406945328</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03696012722763176</v>
+        <v>0.03353958007866645</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2219205378.820141</v>
+        <v>2402317300.194843</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1771637354731448</v>
+        <v>0.1482815376755952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04477686422120482</v>
+        <v>0.05355588999681448</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4619813914.002178</v>
+        <v>4868980144.526138</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07594089488524436</v>
+        <v>0.07965204272971334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02018178100470914</v>
+        <v>0.01985801742926998</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2852058403.579587</v>
+        <v>3506935170.363385</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1444845604713175</v>
+        <v>0.1610371814085028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04228223912225767</v>
+        <v>0.03422557851400991</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1429341438.113725</v>
+        <v>1204471875.865724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1026386998330336</v>
+        <v>0.09297700947280402</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04788289684250319</v>
+        <v>0.04888383958106377</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2591919025.78564</v>
+        <v>1980992659.070478</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09322139787321546</v>
+        <v>0.08199080743157967</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0449110717918696</v>
+        <v>0.03959124297548233</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3529147828.332608</v>
+        <v>4689152878.158362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698454071759061</v>
+        <v>0.1332398186824859</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03815270198114407</v>
+        <v>0.04326612893029207</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3215591811.903407</v>
+        <v>2868054445.218129</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1596663718424984</v>
+        <v>0.1782290158524928</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02976841658119178</v>
+        <v>0.02196013954633854</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1218570245.25432</v>
+        <v>1240784621.786334</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1445364980664374</v>
+        <v>0.1672987425891859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02126207115374023</v>
+        <v>0.02038839705982259</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2412966134.330201</v>
+        <v>2210916253.375023</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1254207977501592</v>
+        <v>0.1296972093997032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02092179261106443</v>
+        <v>0.03149931336389074</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2702253813.358745</v>
+        <v>2555468746.88336</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09376320895056656</v>
+        <v>0.08228327179982685</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04142809431114207</v>
+        <v>0.04393604008007184</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2669030906.652931</v>
+        <v>3123430912.900315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09321533436921646</v>
+        <v>0.1295758011739888</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04798617819364936</v>
+        <v>0.03838796803023847</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1219089928.514554</v>
+        <v>1156456539.724172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1232063321972822</v>
+        <v>0.1405281945944784</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03420392845492404</v>
+        <v>0.04340660578368452</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3001060943.432391</v>
+        <v>3862912709.214125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1041174591812315</v>
+        <v>0.1069822706643426</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02435264134752857</v>
+        <v>0.03380530549100777</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353316636.025358</v>
+        <v>1070325781.409471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08111798687074633</v>
+        <v>0.1167172340890872</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01955376440826163</v>
+        <v>0.01867642987153604</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1408266550.869547</v>
+        <v>875795491.2129917</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09015214528605144</v>
+        <v>0.09434265118971645</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03580557861042575</v>
+        <v>0.03861182823473832</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4383645479.439888</v>
+        <v>3626819431.045756</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1378526687792777</v>
+        <v>0.1194371026296649</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01688308568690251</v>
+        <v>0.02609248356629795</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2885279561.518393</v>
+        <v>2857628196.884073</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09621515003879598</v>
+        <v>0.1266640666187075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04751674170471327</v>
+        <v>0.03598084320943142</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5323313192.80909</v>
+        <v>5335638836.831508</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1235344096476405</v>
+        <v>0.09584574953132184</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03830127254165683</v>
+        <v>0.04380044703816135</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1582305425.483209</v>
+        <v>1987624648.149641</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08839006163032202</v>
+        <v>0.09704142853184536</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04027071620493464</v>
+        <v>0.03045086621598453</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1348830323.285295</v>
+        <v>1193202883.872021</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07681619531685838</v>
+        <v>0.07552656532903676</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03424863650592948</v>
+        <v>0.04428028069146225</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1147451073.951869</v>
+        <v>1282719738.621826</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07449532986937346</v>
+        <v>0.1006694412617525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03738895320850092</v>
+        <v>0.02926122551575539</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2719926937.548423</v>
+        <v>2828774973.680602</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1261984940559752</v>
+        <v>0.1528089420986105</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04221231999526245</v>
+        <v>0.05525333488652925</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1265643049.143484</v>
+        <v>1522171853.677072</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07396978906826204</v>
+        <v>0.1144289466613381</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02539977997075324</v>
+        <v>0.02532071283711485</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>858650981.0030769</v>
+        <v>1286913075.657939</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1067200391599386</v>
+        <v>0.07506240618392442</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04500693755743343</v>
+        <v>0.04291628845828656</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2717686667.559913</v>
+        <v>2695575378.87331</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1642627710223509</v>
+        <v>0.1266917605030495</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02060553828590125</v>
+        <v>0.02274662172989341</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2245316537.512187</v>
+        <v>1854949428.926323</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09924129841369855</v>
+        <v>0.08036369903780825</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04004919378201434</v>
+        <v>0.02917410830646932</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1585492236.096226</v>
+        <v>1557321943.640251</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07871928096474202</v>
+        <v>0.1116658034568676</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03311053910684831</v>
+        <v>0.02976172234064501</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1511761361.103718</v>
+        <v>1443439283.803769</v>
       </c>
       <c r="F39" t="n">
-        <v>0.181480282787675</v>
+        <v>0.1486384888658016</v>
       </c>
       <c r="G39" t="n">
-        <v>0.029830569456484</v>
+        <v>0.03031778919125105</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1394075817.664217</v>
+        <v>1274995170.656865</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273667982306256</v>
+        <v>0.1306837041707538</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05516451916644407</v>
+        <v>0.03756659538133725</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2382422269.594994</v>
+        <v>1778688725.191202</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1429258551092142</v>
+        <v>0.1006915592534747</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02852484579311231</v>
+        <v>0.032043032137682</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3791776314.107456</v>
+        <v>3776807515.809969</v>
       </c>
       <c r="F42" t="n">
-        <v>0.123133173647887</v>
+        <v>0.1136797165541726</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03634507622045265</v>
+        <v>0.02875933134248199</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2239599515.598019</v>
+        <v>2055825798.478701</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1532007922185106</v>
+        <v>0.179479515324539</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02259701959322072</v>
+        <v>0.02450611798624734</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2256941271.603574</v>
+        <v>2042269563.613915</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09954626582599016</v>
+        <v>0.09957229630126471</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0360161784757129</v>
+        <v>0.02267539760435689</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1589571614.24048</v>
+        <v>1980163635.801707</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1634160257710973</v>
+        <v>0.136295301292459</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04739803443414824</v>
+        <v>0.03617030671110109</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4019641504.618127</v>
+        <v>4376681587.191126</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1296785172468573</v>
+        <v>0.1696191278645268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04697836413312013</v>
+        <v>0.03846167889799004</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4161128282.239145</v>
+        <v>3220096500.228575</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2015233861361814</v>
+        <v>0.1689590523735806</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04591473820936798</v>
+        <v>0.05680292119841575</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3707248616.724134</v>
+        <v>3390070233.366946</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09448529426161956</v>
+        <v>0.08789032463351416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02826822098589937</v>
+        <v>0.03317696201400529</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1384192480.377873</v>
+        <v>1608013930.095513</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1586058697365432</v>
+        <v>0.1226533866361915</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03915843099482794</v>
+        <v>0.03175450916333399</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3299679448.087899</v>
+        <v>2935256012.788014</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1687977364008481</v>
+        <v>0.1269145372743617</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04045017644952723</v>
+        <v>0.04604960991141922</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1101855771.79271</v>
+        <v>1047236149.426081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1590909981790637</v>
+        <v>0.1350968161352638</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0504270136418495</v>
+        <v>0.03879180052589192</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3983379021.675952</v>
+        <v>3227078391.891217</v>
       </c>
       <c r="F52" t="n">
-        <v>0.13665237778749</v>
+        <v>0.0916863915209828</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05557785004247363</v>
+        <v>0.05815647726055236</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2396140509.095138</v>
+        <v>2949713542.640085</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904171370200433</v>
+        <v>0.185332418373719</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03406696744655544</v>
+        <v>0.02837806122381797</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4373898152.793689</v>
+        <v>3939496195.628411</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1254083276050421</v>
+        <v>0.126661173800501</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03912823898037953</v>
+        <v>0.04112213075830171</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3291888171.103257</v>
+        <v>3584804407.663654</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1651114039010732</v>
+        <v>0.1431481311505088</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01987932598234768</v>
+        <v>0.0198882962271196</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1327337198.16952</v>
+        <v>1854936424.267844</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1555939555983386</v>
+        <v>0.1628641695056263</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03669360512914526</v>
+        <v>0.05626921097185263</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3769515307.138402</v>
+        <v>3288121041.692051</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1354322539489112</v>
+        <v>0.1549578503701002</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01952161531068538</v>
+        <v>0.02569209104576864</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1488979240.277807</v>
+        <v>1316761339.578616</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1367831933815837</v>
+        <v>0.1546940085173293</v>
       </c>
       <c r="G58" t="n">
-        <v>0.026014969193527</v>
+        <v>0.03489696206591956</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3343964118.27366</v>
+        <v>3481860560.083624</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1131581000540074</v>
+        <v>0.122147765318444</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03025058334369652</v>
+        <v>0.03660141979961829</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3118537610.505509</v>
+        <v>3177678599.619895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1297898858948163</v>
+        <v>0.1926201105865051</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03323683998542056</v>
+        <v>0.02783610229086965</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2597914632.150875</v>
+        <v>2297565880.391198</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1410450427092211</v>
+        <v>0.1617123864230186</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02661257853043754</v>
+        <v>0.02048439311741738</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1706006215.458842</v>
+        <v>1304274651.664202</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1794211325682967</v>
+        <v>0.1822028497261328</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03361253150169232</v>
+        <v>0.04231157725783009</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4662803124.876608</v>
+        <v>5382706545.56536</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08945259390316636</v>
+        <v>0.1002395394767493</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03740317294433115</v>
+        <v>0.03842221490269444</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4224391602.122272</v>
+        <v>4594072101.424603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1750695470711456</v>
+        <v>0.1259133866823954</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02414835380311729</v>
+        <v>0.02229822473363623</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4192392928.094373</v>
+        <v>4177304432.587342</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1622527431322199</v>
+        <v>0.1542892816548839</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0244698658271317</v>
+        <v>0.02277420499054011</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5261044249.370074</v>
+        <v>5699615186.418614</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1343999310384606</v>
+        <v>0.1621280378946947</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03432652632701065</v>
+        <v>0.03845024990365759</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3212022783.126618</v>
+        <v>2935427823.995751</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09676603368476074</v>
+        <v>0.08006512041718251</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05060579112661392</v>
+        <v>0.03133807084898546</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5606210584.422068</v>
+        <v>4648884948.688056</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1232299590997485</v>
+        <v>0.1554740273613635</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03233679706678265</v>
+        <v>0.04584535624838861</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2199417413.225199</v>
+        <v>1662394786.05113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1627166928685753</v>
+        <v>0.1119970229456592</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05060807489765909</v>
+        <v>0.04405284245685161</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2542140980.729607</v>
+        <v>2860590664.816392</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06937345752503946</v>
+        <v>0.08097574234876616</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04250649355018818</v>
+        <v>0.04512698200244977</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4722212371.841193</v>
+        <v>5033459370.349304</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219171355185783</v>
+        <v>0.1297030632442355</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03411107123401656</v>
+        <v>0.03269233039453012</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1618620091.457581</v>
+        <v>1962617788.650235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06681204152708166</v>
+        <v>0.06611235633803979</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04701412981525278</v>
+        <v>0.05034643995147368</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2574301533.799633</v>
+        <v>2214410781.901852</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109743177162056</v>
+        <v>0.06958949623125982</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04402303206585825</v>
+        <v>0.04145557725311475</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3473313145.915667</v>
+        <v>2747932171.581348</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1371912774262498</v>
+        <v>0.15853260011816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02734660760617459</v>
+        <v>0.02315868766552038</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1591902785.611615</v>
+        <v>2162274783.973771</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1194652561294366</v>
+        <v>0.1453505341193713</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02500051767043279</v>
+        <v>0.02612651999501039</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4820958631.577381</v>
+        <v>4433851280.631606</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123284024951703</v>
+        <v>0.08338235466065462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03116269769814079</v>
+        <v>0.03192614197754273</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1681256120.510623</v>
+        <v>1736733811.037953</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1627535602794417</v>
+        <v>0.1465451941181933</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02151358795480339</v>
+        <v>0.02715333009792946</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3501032713.003197</v>
+        <v>3585011882.032973</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1237750053301319</v>
+        <v>0.0858109371686033</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04036811350699882</v>
+        <v>0.05168690802561889</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1214239532.797981</v>
+        <v>1693575099.824657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1445798466712205</v>
+        <v>0.1160688863505489</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03418569411921472</v>
+        <v>0.03707303264874428</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4564083385.084091</v>
+        <v>4301270919.693213</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06937397060594611</v>
+        <v>0.1009464181206504</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03442646517759887</v>
+        <v>0.0294284045841549</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3981675044.762781</v>
+        <v>3531180043.970323</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1012019974604962</v>
+        <v>0.137464013111886</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03281403235076381</v>
+        <v>0.0202121648513131</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3624219259.027306</v>
+        <v>3721665062.210755</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1911943418280513</v>
+        <v>0.1794029612532051</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01778042926012612</v>
+        <v>0.0209955204912269</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2453718306.476224</v>
+        <v>2287718627.397672</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1345302516338232</v>
+        <v>0.1477032115495752</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03588629875880238</v>
+        <v>0.03306470196157074</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2180675523.403666</v>
+        <v>1920297485.74946</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08216454871640425</v>
+        <v>0.1205229980709983</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03839107250009485</v>
+        <v>0.03745733788084721</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2651007340.639877</v>
+        <v>2650462269.66055</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1405611794870061</v>
+        <v>0.1357491209612243</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05377017549742698</v>
+        <v>0.05385761467574729</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2124988558.111968</v>
+        <v>1912626929.954457</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1464310809949319</v>
+        <v>0.1238059733321407</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02536093670082757</v>
+        <v>0.02274929230856719</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1370764569.400654</v>
+        <v>1098505734.648196</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1771721047947069</v>
+        <v>0.1902847511732421</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03165853505541593</v>
+        <v>0.03377167222480214</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2938065182.597328</v>
+        <v>3226584089.558067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1739844292493712</v>
+        <v>0.1539540769313693</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03446682028169434</v>
+        <v>0.03202446972507048</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2829482019.791051</v>
+        <v>3422305125.75932</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1332436013824825</v>
+        <v>0.1584467512025172</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03496799120563382</v>
+        <v>0.03291656870901705</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1394002218.533411</v>
+        <v>1585658290.777642</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1266500493209104</v>
+        <v>0.09777253323978229</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04977939885311227</v>
+        <v>0.03650941463855514</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1843225710.998685</v>
+        <v>1934638515.051765</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1557363992013175</v>
+        <v>0.124335433800803</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04631070842753582</v>
+        <v>0.04057529051176866</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2434068473.871052</v>
+        <v>2744270094.848678</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1057063679754165</v>
+        <v>0.09940405206687557</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04554500862217897</v>
+        <v>0.0426203755671806</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3188324522.094638</v>
+        <v>4548584605.119778</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382654961070165</v>
+        <v>0.1381851281775791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04549580113847456</v>
+        <v>0.0415411045304574</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2188043925.315882</v>
+        <v>1569020792.208011</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1201277507982757</v>
+        <v>0.1401897337863695</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03367799090400743</v>
+        <v>0.03296327904104462</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3054292172.846853</v>
+        <v>2422271144.518647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1117117387817397</v>
+        <v>0.1194435714655586</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03920662354960684</v>
+        <v>0.05140361334087275</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1783232586.153364</v>
+        <v>1454457868.06167</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1086832542446121</v>
+        <v>0.139881489061867</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03219260325333097</v>
+        <v>0.03215440606785625</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3689353078.784439</v>
+        <v>4251314303.538931</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1197576905920058</v>
+        <v>0.1766728299428884</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02906951287574651</v>
+        <v>0.02232842333095067</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3070141188.544559</v>
+        <v>3217204823.041968</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1074335393218009</v>
+        <v>0.08387071899562397</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0323929195426057</v>
+        <v>0.02637754119813749</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2335070417.349838</v>
+        <v>2906643343.71344</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1104985679536889</v>
+        <v>0.1062443421813216</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03343444822245456</v>
+        <v>0.02476089175738767</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3162480034.707364</v>
+        <v>3255647023.815591</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1698559700710325</v>
+        <v>0.1236110886096379</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02307038091866079</v>
+        <v>0.01823473853588678</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3371901942.888409</v>
+        <v>3243890000.189247</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1416490540906001</v>
+        <v>0.1685214596276495</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04529958779070811</v>
+        <v>0.03850363914847728</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_97.xlsx
+++ b/output/fit_clients/fit_round_97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2394387620.271888</v>
+        <v>1853161675.171623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09589228029312098</v>
+        <v>0.070484527092435</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04170644309337687</v>
+        <v>0.03421803799678443</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2632249976.421508</v>
+        <v>2018472375.674355</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1471002861595802</v>
+        <v>0.1264728968982671</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03242869818181317</v>
+        <v>0.03780231890820513</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3776483266.012659</v>
+        <v>4502626382.339476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1212768293274355</v>
+        <v>0.1049810440383981</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0254348350314708</v>
+        <v>0.02451385282955033</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61</v>
+      </c>
+      <c r="J4" t="n">
+        <v>96</v>
+      </c>
+      <c r="K4" t="n">
+        <v>164.3469157720493</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2607764035.776169</v>
+        <v>4194904568.324884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09943327851133318</v>
+        <v>0.1075023493325835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04806155978115632</v>
+        <v>0.03369671343939282</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1944742031.488798</v>
+        <v>1997561042.723557</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09028375704290373</v>
+        <v>0.1024115338916027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04767425234411481</v>
+        <v>0.04350278758209719</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2283057211.650111</v>
+        <v>2997292296.907127</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07574566675297124</v>
+        <v>0.1021131604673363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0462041229588084</v>
+        <v>0.04327302020091971</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2730615401.889277</v>
+        <v>3614150320.577555</v>
       </c>
       <c r="F8" t="n">
-        <v>0.214381030393742</v>
+        <v>0.1551871085252783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03344135417811352</v>
+        <v>0.02509521484941339</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2205332958.486958</v>
+        <v>1703111092.848062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1269125437303069</v>
+        <v>0.1767978314644077</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03129619431643641</v>
+        <v>0.03229517217442704</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4439346673.622075</v>
+        <v>5929750598.746154</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1667879769263782</v>
+        <v>0.2125212230586547</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0486047681994027</v>
+        <v>0.05302039803247535</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>97</v>
+      </c>
+      <c r="K10" t="n">
+        <v>183.2758307404319</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2599567061.671309</v>
+        <v>3180759212.80642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1386267406945328</v>
+        <v>0.1622433234902385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03353958007866645</v>
+        <v>0.04380582248930758</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>96</v>
+      </c>
+      <c r="K11" t="n">
+        <v>111.3264393939788</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2402317300.194843</v>
+        <v>2727194089.4333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1482815376755952</v>
+        <v>0.1474245826011995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05355588999681448</v>
+        <v>0.03324518499304017</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4868980144.526138</v>
+        <v>4231671025.999763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07965204272971334</v>
+        <v>0.06590636049572061</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01985801742926998</v>
+        <v>0.02324966291991075</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>96</v>
+      </c>
+      <c r="K13" t="n">
+        <v>158.7797458898744</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3506935170.363385</v>
+        <v>3395052405.485566</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1610371814085028</v>
+        <v>0.1811188735562415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03422557851400991</v>
+        <v>0.03430040644289615</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>97</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1204471875.865724</v>
+        <v>1321176790.547239</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09297700947280402</v>
+        <v>0.07180546494511476</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04888383958106377</v>
+        <v>0.03111884233647783</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1980992659.070478</v>
+        <v>2395466691.383674</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08199080743157967</v>
+        <v>0.0728606429589984</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03959124297548233</v>
+        <v>0.03259605526930064</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4689152878.158362</v>
+        <v>3994776051.478958</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1332398186824859</v>
+        <v>0.1599818658306909</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04326612893029207</v>
+        <v>0.05315326863747551</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>96</v>
+      </c>
+      <c r="K17" t="n">
+        <v>142.6694894964117</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2868054445.218129</v>
+        <v>2970760938.508121</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1782290158524928</v>
+        <v>0.1314441380165874</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02196013954633854</v>
+        <v>0.03007880326969098</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1240784621.786334</v>
+        <v>1153928216.792736</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1672987425891859</v>
+        <v>0.1221071702505168</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02038839705982259</v>
+        <v>0.01738887846090907</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2210916253.375023</v>
+        <v>2585137535.570585</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1296972093997032</v>
+        <v>0.1094020745474884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03149931336389074</v>
+        <v>0.02160557136930233</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2555468746.88336</v>
+        <v>1772512789.212532</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08228327179982685</v>
+        <v>0.06844025406538781</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04393604008007184</v>
+        <v>0.03305409513231249</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3123430912.900315</v>
+        <v>3135610558.751265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1295758011739888</v>
+        <v>0.1442791701439404</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03838796803023847</v>
+        <v>0.05020942520133727</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>95</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1156456539.724172</v>
+        <v>1080672096.215191</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1405281945944784</v>
+        <v>0.1119604005670867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04340660578368452</v>
+        <v>0.05273079029202279</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3862912709.214125</v>
+        <v>2727978649.864209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1069822706643426</v>
+        <v>0.135221290699708</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03380530549100777</v>
+        <v>0.03649571451495217</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1070325781.409471</v>
+        <v>914223191.7003633</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1167172340890872</v>
+        <v>0.1188842150815244</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01867642987153604</v>
+        <v>0.02771370063022612</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>875795491.2129917</v>
+        <v>1296382036.095805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09434265118971645</v>
+        <v>0.1153630730278254</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03861182823473832</v>
+        <v>0.03138290795990004</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3626819431.045756</v>
+        <v>4575409716.231024</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1194371026296649</v>
+        <v>0.13877129691226</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02609248356629795</v>
+        <v>0.01953655351281384</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>96</v>
+      </c>
+      <c r="K27" t="n">
+        <v>137.3656322256609</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2857628196.884073</v>
+        <v>2875740346.271714</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1266640666187075</v>
+        <v>0.1105783773064492</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03598084320943142</v>
+        <v>0.03828650186983588</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5335638836.831508</v>
+        <v>4898795692.607119</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09584574953132184</v>
+        <v>0.1385014020816538</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04380044703816135</v>
+        <v>0.04132603112146004</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>91</v>
+      </c>
+      <c r="J29" t="n">
+        <v>97</v>
+      </c>
+      <c r="K29" t="n">
+        <v>193.5190219402197</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1987624648.149641</v>
+        <v>1456040760.015168</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09704142853184536</v>
+        <v>0.09875125252234461</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03045086621598453</v>
+        <v>0.02957245981134239</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1193202883.872021</v>
+        <v>907175203.1881233</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07552656532903676</v>
+        <v>0.07197993902265711</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04428028069146225</v>
+        <v>0.04233419938876639</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1282719738.621826</v>
+        <v>1259893785.485062</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1006694412617525</v>
+        <v>0.0896428195779683</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02926122551575539</v>
+        <v>0.02869738928277666</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2828774973.680602</v>
+        <v>1947461631.020659</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1528089420986105</v>
+        <v>0.1594171588321636</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05525333488652925</v>
+        <v>0.05335317487841339</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1522171853.677072</v>
+        <v>1010381876.442138</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1144289466613381</v>
+        <v>0.1181992362558089</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02532071283711485</v>
+        <v>0.02184901388066519</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286913075.657939</v>
+        <v>939557750.3844993</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07506240618392442</v>
+        <v>0.07833576992931446</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04291628845828656</v>
+        <v>0.03605131537657597</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2695575378.87331</v>
+        <v>2157661289.056097</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1266917605030495</v>
+        <v>0.1194259509508398</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02274662172989341</v>
+        <v>0.01944497279762298</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1854949428.926323</v>
+        <v>1966207934.078976</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08036369903780825</v>
+        <v>0.1085172942058562</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02917410830646932</v>
+        <v>0.04066070966578536</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1557321943.640251</v>
+        <v>2175153141.615828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1116658034568676</v>
+        <v>0.122372124919757</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02976172234064501</v>
+        <v>0.02535621029073431</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1443439283.803769</v>
+        <v>1838737130.19393</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1486384888658016</v>
+        <v>0.14678503501784</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03031778919125105</v>
+        <v>0.02929600227892733</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1274995170.656865</v>
+        <v>1675976343.235445</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1306837041707538</v>
+        <v>0.1496210757882382</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03756659538133725</v>
+        <v>0.05721010938681446</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1778688725.191202</v>
+        <v>2497972866.39254</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006915592534747</v>
+        <v>0.1127115798728081</v>
       </c>
       <c r="G41" t="n">
-        <v>0.032043032137682</v>
+        <v>0.04364894104240973</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3776807515.809969</v>
+        <v>4051685654.839474</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1136797165541726</v>
+        <v>0.1029772428165599</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02875933134248199</v>
+        <v>0.04318407903343898</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>37</v>
+      </c>
+      <c r="J42" t="n">
+        <v>97</v>
+      </c>
+      <c r="K42" t="n">
+        <v>168.1857614994064</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2055825798.478701</v>
+        <v>2134052302.101534</v>
       </c>
       <c r="F43" t="n">
-        <v>0.179479515324539</v>
+        <v>0.138834830638232</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02450611798624734</v>
+        <v>0.01779186790367959</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2042269563.613915</v>
+        <v>2024902864.766922</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09957229630126471</v>
+        <v>0.06940579220838924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02267539760435689</v>
+        <v>0.03158400707531205</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1980163635.801707</v>
+        <v>1844044832.498816</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136295301292459</v>
+        <v>0.1395723777021397</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03617030671110109</v>
+        <v>0.0422227655006928</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4376681587.191126</v>
+        <v>4917924395.78169</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1696191278645268</v>
+        <v>0.1782148898476575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03846167889799004</v>
+        <v>0.05987504345638475</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>56</v>
+      </c>
+      <c r="J46" t="n">
+        <v>96</v>
+      </c>
+      <c r="K46" t="n">
+        <v>166.8762157969645</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3220096500.228575</v>
+        <v>4753517724.725152</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1689590523735806</v>
+        <v>0.170606862837849</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05680292119841575</v>
+        <v>0.03924093939786012</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96</v>
+      </c>
+      <c r="K47" t="n">
+        <v>137.9089038649897</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2131,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3390070233.366946</v>
+        <v>3232461435.895628</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08789032463351416</v>
+        <v>0.107789359915037</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03317696201400529</v>
+        <v>0.02655635900100078</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>94</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1608013930.095513</v>
+        <v>1410469840.99824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1226533866361915</v>
+        <v>0.1624174635600303</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03175450916333399</v>
+        <v>0.03106721032257023</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2935256012.788014</v>
+        <v>3610502257.280139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1269145372743617</v>
+        <v>0.1254739473938498</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04604960991141922</v>
+        <v>0.03868833781514824</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>96</v>
+      </c>
+      <c r="K50" t="n">
+        <v>130.9977884079013</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047236149.426081</v>
+        <v>1285391544.727789</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1350968161352638</v>
+        <v>0.1241530986265305</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03879180052589192</v>
+        <v>0.05170433648654653</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3227078391.891217</v>
+        <v>3838534750.755706</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0916863915209828</v>
+        <v>0.08375287715699752</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05815647726055236</v>
+        <v>0.04612353246149321</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>75</v>
+      </c>
+      <c r="J52" t="n">
+        <v>96</v>
+      </c>
+      <c r="K52" t="n">
+        <v>156.1787615884596</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2949713542.640085</v>
+        <v>3107435657.574319</v>
       </c>
       <c r="F53" t="n">
-        <v>0.185332418373719</v>
+        <v>0.2023464635915403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02837806122381797</v>
+        <v>0.03485852575542765</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3939496195.628411</v>
+        <v>3181729087.602352</v>
       </c>
       <c r="F54" t="n">
-        <v>0.126661173800501</v>
+        <v>0.1236523909801069</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04112213075830171</v>
+        <v>0.052070879280357</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>96</v>
+      </c>
+      <c r="K54" t="n">
+        <v>100.9733671721308</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3584804407.663654</v>
+        <v>3266605242.529627</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1431481311505088</v>
+        <v>0.1754842366439504</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0198882962271196</v>
+        <v>0.02479894003270955</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44</v>
+      </c>
+      <c r="J55" t="n">
+        <v>95</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1854936424.267844</v>
+        <v>1846974032.774762</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628641695056263</v>
+        <v>0.1315684999707849</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05626921097185263</v>
+        <v>0.0450099760161313</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3288121041.692051</v>
+        <v>3105466175.685745</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1549578503701002</v>
+        <v>0.1141510149356839</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02569209104576864</v>
+        <v>0.01848884675945439</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>37</v>
+      </c>
+      <c r="J57" t="n">
+        <v>96</v>
+      </c>
+      <c r="K57" t="n">
+        <v>92.03340891321024</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1316761339.578616</v>
+        <v>1630081444.959761</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1546940085173293</v>
+        <v>0.1650924069633283</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03489696206591956</v>
+        <v>0.02769952964838744</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2518,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3481860560.083624</v>
+        <v>4437131646.894834</v>
       </c>
       <c r="F59" t="n">
-        <v>0.122147765318444</v>
+        <v>0.09012592199158828</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03660141979961829</v>
+        <v>0.03302976902342514</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>47</v>
+      </c>
+      <c r="J59" t="n">
+        <v>97</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3177678599.619895</v>
+        <v>3359998114.663334</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1926201105865051</v>
+        <v>0.1350695963905899</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02783610229086965</v>
+        <v>0.03119842472785405</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2297565880.391198</v>
+        <v>2626257741.011328</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1617123864230186</v>
+        <v>0.1779339507455771</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02048439311741738</v>
+        <v>0.02761088600797362</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1304274651.664202</v>
+        <v>1925404221.553529</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1822028497261328</v>
+        <v>0.1938883895718851</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04231157725783009</v>
+        <v>0.03265588482237042</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5382706545.56536</v>
+        <v>5129944578.97439</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1002395394767493</v>
+        <v>0.09904073068324469</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03842221490269444</v>
+        <v>0.04164177802981413</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>48</v>
+      </c>
+      <c r="J63" t="n">
+        <v>96</v>
+      </c>
+      <c r="K63" t="n">
+        <v>149.1436635903283</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4594072101.424603</v>
+        <v>3609899735.843108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1259133866823954</v>
+        <v>0.1612988277211539</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02229822473363623</v>
+        <v>0.02786400681461317</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>48</v>
+      </c>
+      <c r="J64" t="n">
+        <v>96</v>
+      </c>
+      <c r="K64" t="n">
+        <v>125.4931205403325</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2732,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4177304432.587342</v>
+        <v>5733333754.127545</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1542892816548839</v>
+        <v>0.1284805973012031</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02277420499054011</v>
+        <v>0.02189859955315771</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>78</v>
+      </c>
+      <c r="J65" t="n">
+        <v>97</v>
+      </c>
+      <c r="K65" t="n">
+        <v>170.9509493213693</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2775,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5699615186.418614</v>
+        <v>3999422208.358402</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1621280378946947</v>
+        <v>0.1424283633145436</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03845024990365759</v>
+        <v>0.04047443932901973</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>47</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2935427823.995751</v>
+        <v>3053809955.581521</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08006512041718251</v>
+        <v>0.07898645265324351</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03133807084898546</v>
+        <v>0.05020453202535229</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2839,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4648884948.688056</v>
+        <v>5487191715.814123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1554740273613635</v>
+        <v>0.1605203944916142</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04584535624838861</v>
+        <v>0.03459974178156241</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>48</v>
+      </c>
+      <c r="J68" t="n">
+        <v>97</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2880,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1662394786.05113</v>
+        <v>2096294471.007624</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1119970229456592</v>
+        <v>0.140411062990702</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04405284245685161</v>
+        <v>0.04126904762419728</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2860590664.816392</v>
+        <v>3051042070.215771</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08097574234876616</v>
+        <v>0.06797372663567884</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04512698200244977</v>
+        <v>0.04695303852675498</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2950,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5033459370.349304</v>
+        <v>3673739343.167688</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1297030632442355</v>
+        <v>0.1367217916359762</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03269233039453012</v>
+        <v>0.0271174107649874</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>79</v>
+      </c>
+      <c r="J71" t="n">
+        <v>96</v>
+      </c>
+      <c r="K71" t="n">
+        <v>141.0678307181841</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1962617788.650235</v>
+        <v>2127405118.081542</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06611235633803979</v>
+        <v>0.1085375939524837</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05034643995147368</v>
+        <v>0.04326279021362896</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3022,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2214410781.901852</v>
+        <v>2703679573.213897</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06958949623125982</v>
+        <v>0.07855344790581578</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04145557725311475</v>
+        <v>0.04522906387949308</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3057,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2747932171.581348</v>
+        <v>3896802665.128472</v>
       </c>
       <c r="F74" t="n">
-        <v>0.15853260011816</v>
+        <v>0.1770440863255667</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02315868766552038</v>
+        <v>0.03473077936262309</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>97</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2162274783.973771</v>
+        <v>2219256497.2938</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1453505341193713</v>
+        <v>0.1606890565576825</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02612651999501039</v>
+        <v>0.02505788728326239</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4433851280.631606</v>
+        <v>4985905184.354502</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08338235466065462</v>
+        <v>0.0865481667049187</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03192614197754273</v>
+        <v>0.02610467232007208</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>44</v>
+      </c>
+      <c r="J76" t="n">
+        <v>97</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3162,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1736733811.037953</v>
+        <v>2129282565.880463</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1465451941181933</v>
+        <v>0.1464773577720235</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02715333009792946</v>
+        <v>0.02559088978201361</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3585011882.032973</v>
+        <v>4113298679.386961</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0858109371686033</v>
+        <v>0.1312051564879549</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05168690802561889</v>
+        <v>0.04043871579931217</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>49</v>
+      </c>
+      <c r="J78" t="n">
+        <v>97</v>
+      </c>
+      <c r="K78" t="n">
+        <v>172.6449146237468</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1693575099.824657</v>
+        <v>1887099704.846716</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1160688863505489</v>
+        <v>0.1277241693393917</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03707303264874428</v>
+        <v>0.02502150105237862</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4301270919.693213</v>
+        <v>4231872056.773769</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1009464181206504</v>
+        <v>0.09773466417290642</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0294284045841549</v>
+        <v>0.03270971875020364</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>46</v>
+      </c>
+      <c r="J80" t="n">
+        <v>97</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3531180043.970323</v>
+        <v>3322471355.189194</v>
       </c>
       <c r="F81" t="n">
-        <v>0.137464013111886</v>
+        <v>0.11467489655127</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0202121648513131</v>
+        <v>0.02751279749917306</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>44</v>
+      </c>
+      <c r="J81" t="n">
+        <v>95</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3721665062.210755</v>
+        <v>4123680219.317024</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1794029612532051</v>
+        <v>0.149659918966358</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0209955204912269</v>
+        <v>0.02463127108019094</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>62</v>
+      </c>
+      <c r="J82" t="n">
+        <v>97</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2287718627.397672</v>
+        <v>2226827071.806511</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1477032115495752</v>
+        <v>0.1558656577664588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03306470196157074</v>
+        <v>0.03163510148527073</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1920297485.74946</v>
+        <v>2210028284.26735</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1205229980709983</v>
+        <v>0.08289986270134582</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03745733788084721</v>
+        <v>0.04249505513459445</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2650462269.66055</v>
+        <v>2352589536.67942</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1357491209612243</v>
+        <v>0.1190529324869121</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05385761467574729</v>
+        <v>0.05040063489285684</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>16</v>
+      </c>
+      <c r="J85" t="n">
+        <v>95</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1912626929.954457</v>
+        <v>2300271420.549516</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1238059733321407</v>
+        <v>0.1722584696554137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02274929230856719</v>
+        <v>0.02336851948591066</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1098505734.648196</v>
+        <v>1255675031.886892</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1902847511732421</v>
+        <v>0.1623772423539193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03377167222480214</v>
+        <v>0.04029175472493695</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3226584089.558067</v>
+        <v>3454461645.435056</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1539540769313693</v>
+        <v>0.1266050236337786</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03202446972507048</v>
+        <v>0.03665607510194112</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>97</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3422305125.75932</v>
+        <v>3445432805.852006</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1584467512025172</v>
+        <v>0.1230636529977824</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03291656870901705</v>
+        <v>0.0376347235931753</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1585658290.777642</v>
+        <v>1802373233.835214</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09777253323978229</v>
+        <v>0.1336800003990001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03650941463855514</v>
+        <v>0.04000077513141254</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1934638515.051765</v>
+        <v>1569031936.873949</v>
       </c>
       <c r="F91" t="n">
-        <v>0.124335433800803</v>
+        <v>0.1734811728326578</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04057529051176866</v>
+        <v>0.03726142696140011</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2744270094.848678</v>
+        <v>2487791873.416925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09940405206687557</v>
+        <v>0.07198707973580508</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0426203755671806</v>
+        <v>0.03925758766361282</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4548584605.119778</v>
+        <v>3726333932.89639</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1381851281775791</v>
+        <v>0.1198506692702279</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0415411045304574</v>
+        <v>0.03974643602249262</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>44</v>
+      </c>
+      <c r="J93" t="n">
+        <v>96</v>
+      </c>
+      <c r="K93" t="n">
+        <v>128.792627959709</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1569020792.208011</v>
+        <v>1704439602.880427</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1401897337863695</v>
+        <v>0.1116405004750143</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03296327904104462</v>
+        <v>0.03385971231658527</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2422271144.518647</v>
+        <v>2685019811.29895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1194435714655586</v>
+        <v>0.1076124585691367</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05140361334087275</v>
+        <v>0.04478970727849148</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1454457868.06167</v>
+        <v>1593091135.259855</v>
       </c>
       <c r="F96" t="n">
-        <v>0.139881489061867</v>
+        <v>0.1143580280282132</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03215440606785625</v>
+        <v>0.02975565922422842</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4251314303.538931</v>
+        <v>4685065568.492372</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1766728299428884</v>
+        <v>0.1565731294313639</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02232842333095067</v>
+        <v>0.02646286460217359</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>46</v>
+      </c>
+      <c r="J97" t="n">
+        <v>97</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3217204823.041968</v>
+        <v>3354714772.847832</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08387071899562397</v>
+        <v>0.09959749754343196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02637754119813749</v>
+        <v>0.02068632262302039</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2906643343.71344</v>
+        <v>2860738572.577159</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1062443421813216</v>
+        <v>0.1124324339417892</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02476089175738767</v>
+        <v>0.0236172848524707</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3255647023.815591</v>
+        <v>3732004098.834774</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1236110886096379</v>
+        <v>0.1650542455648225</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01823473853588678</v>
+        <v>0.02492702612178519</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>39</v>
+      </c>
+      <c r="J100" t="n">
+        <v>97</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3243890000.189247</v>
+        <v>2659653573.916615</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1685214596276495</v>
+        <v>0.1448972779858879</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03850363914847728</v>
+        <v>0.05179509125952637</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
